--- a/data/spring-cloud-shop/shop-order-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-order-model_structure.xlsx
@@ -504,87 +504,87 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>sellerId</t>
+  </si>
+  <si>
+    <t>discountAmount</t>
+  </si>
+  <si>
+    <t>orderAmount</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>discountAmount</t>
+    <t>integralAmount</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>orderStatus</t>
+  </si>
+  <si>
+    <t>payType</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>payAmount</t>
+  </si>
+  <si>
+    <t>addrId</t>
   </si>
   <si>
     <t>self</t>
   </si>
   <si>
-    <t>payType</t>
-  </si>
-  <si>
-    <t>integralAmount</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>couponId</t>
   </si>
   <si>
     <t>orderCode</t>
   </si>
   <si>
-    <t>payAmount</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>orderAmount</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>addrId</t>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>integral</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>orderType</t>
-  </si>
-  <si>
-    <t>sellerId</t>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>beginTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
   </si>
   <si>
     <t>order</t>
   </si>
   <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>beginTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
     <t>deliveryTime</t>
   </si>
   <si>
+    <t>raised</t>
+  </si>
+  <si>
+    <t>evaluated</t>
+  </si>
+  <si>
     <t>payment</t>
   </si>
   <si>
-    <t>evaluated</t>
-  </si>
-  <si>
-    <t>raised</t>
-  </si>
-  <si>
     <t>received</t>
   </si>
   <si>
@@ -594,106 +594,106 @@
     <t>REFUSE</t>
   </si>
   <si>
+    <t>PAY</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>PAY</t>
-  </si>
-  <si>
     <t>timeRange</t>
   </si>
   <si>
+    <t>BS010</t>
+  </si>
+  <si>
+    <t>BS004</t>
+  </si>
+  <si>
+    <t>BS009</t>
+  </si>
+  <si>
+    <t>BS012</t>
+  </si>
+  <si>
+    <t>BS013</t>
+  </si>
+  <si>
+    <t>BS011</t>
+  </si>
+  <si>
+    <t>BS001</t>
+  </si>
+  <si>
+    <t>BS008</t>
+  </si>
+  <si>
+    <t>BS003</t>
+  </si>
+  <si>
     <t>BS007</t>
   </si>
   <si>
+    <t>BS005</t>
+  </si>
+  <si>
     <t>BS002</t>
   </si>
   <si>
-    <t>BS009</t>
-  </si>
-  <si>
-    <t>BS008</t>
-  </si>
-  <si>
-    <t>BS010</t>
-  </si>
-  <si>
-    <t>BS004</t>
-  </si>
-  <si>
-    <t>BS013</t>
-  </si>
-  <si>
-    <t>BS012</t>
-  </si>
-  <si>
     <t>BS006</t>
   </si>
   <si>
-    <t>BS005</t>
-  </si>
-  <si>
-    <t>BS001</t>
-  </si>
-  <si>
-    <t>BS003</t>
-  </si>
-  <si>
-    <t>BS011</t>
+    <t>tradeType</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
   </si>
   <si>
     <t>tradeNo</t>
   </si>
   <si>
-    <t>tradeType</t>
-  </si>
-  <si>
-    <t>totalAmount</t>
-  </si>
-  <si>
     <t>outTradeNo</t>
   </si>
   <si>
     <t>ALL</t>
   </si>
   <si>
+    <t>RAISED</t>
+  </si>
+  <si>
+    <t>EVALUATED</t>
+  </si>
+  <si>
     <t>PAYMENT</t>
   </si>
   <si>
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>RAISED</t>
-  </si>
-  <si>
-    <t>EVALUATED</t>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+  </si>
+  <si>
+    <t>INTEGRAL</t>
   </si>
   <si>
     <t>SEC_KILL</t>
   </si>
   <si>
-    <t>NORMAL</t>
-  </si>
-  <si>
-    <t>SELF</t>
-  </si>
-  <si>
-    <t>INTEGRAL</t>
-  </si>
-  <si>
-    <t>SPECIAL</t>
+    <t>ALIPAY</t>
+  </si>
+  <si>
+    <t>HUABEI</t>
   </si>
   <si>
     <t>WECHAT</t>
-  </si>
-  <si>
-    <t>HUABEI</t>
-  </si>
-  <si>
-    <t>ALIPAY</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -8181,7 +8181,7 @@
         <v>118</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -8195,7 +8195,7 @@
         <v>118</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -8209,7 +8209,7 @@
         <v>118</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -8223,7 +8223,7 @@
         <v>118</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -8237,7 +8237,7 @@
         <v>118</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -8251,7 +8251,7 @@
         <v>118</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -8293,7 +8293,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -8335,7 +8335,7 @@
         <v>118</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -8349,7 +8349,7 @@
         <v>118</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -8363,7 +8363,7 @@
         <v>118</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -8377,7 +8377,7 @@
         <v>118</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -8385,13 +8385,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -8399,13 +8399,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -8419,7 +8419,7 @@
         <v>118</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -8427,13 +8427,13 @@
         <v>65</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -8441,7 +8441,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>118</v>
@@ -8455,13 +8455,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -8469,13 +8469,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -8483,13 +8483,13 @@
         <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -8497,13 +8497,13 @@
         <v>65</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -8511,13 +8511,13 @@
         <v>65</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -8525,13 +8525,13 @@
         <v>65</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
@@ -8539,13 +8539,13 @@
         <v>75</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -8553,13 +8553,13 @@
         <v>75</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -8567,13 +8567,13 @@
         <v>75</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -8581,13 +8581,13 @@
         <v>75</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -8595,13 +8595,13 @@
         <v>75</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -8609,13 +8609,13 @@
         <v>75</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -8623,13 +8623,13 @@
         <v>75</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -8637,13 +8637,13 @@
         <v>75</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>175</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -8651,13 +8651,13 @@
         <v>75</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -8665,13 +8665,13 @@
         <v>75</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -8679,13 +8679,13 @@
         <v>75</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -8693,13 +8693,13 @@
         <v>75</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
@@ -8707,13 +8707,13 @@
         <v>75</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -8721,13 +8721,13 @@
         <v>85</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -8735,7 +8735,7 @@
         <v>85</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>118</v>
@@ -8749,7 +8749,7 @@
         <v>85</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>118</v>
@@ -8763,7 +8763,7 @@
         <v>85</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>118</v>
@@ -8777,13 +8777,13 @@
         <v>85</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46">
@@ -8791,13 +8791,13 @@
         <v>95</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -8805,13 +8805,13 @@
         <v>95</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -8825,7 +8825,7 @@
         <v>118</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -8833,13 +8833,13 @@
         <v>95</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
@@ -8847,13 +8847,13 @@
         <v>95</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -8861,13 +8861,13 @@
         <v>95</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -8875,13 +8875,13 @@
         <v>95</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -8889,7 +8889,7 @@
         <v>95</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>118</v>
@@ -8903,13 +8903,13 @@
         <v>95</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -8917,13 +8917,13 @@
         <v>95</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -8931,7 +8931,7 @@
         <v>95</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>118</v>
@@ -8945,13 +8945,13 @@
         <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8959,7 +8959,7 @@
         <v>97</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>118</v>
@@ -9004,10 +9004,10 @@
         <v>190</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
@@ -9021,7 +9021,7 @@
         <v>118</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63">
@@ -9032,10 +9032,10 @@
         <v>192</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -9043,7 +9043,7 @@
         <v>121</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>118</v>
@@ -9057,7 +9057,7 @@
         <v>121</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>118</v>
@@ -9071,7 +9071,7 @@
         <v>121</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>118</v>
@@ -9085,13 +9085,13 @@
         <v>121</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>175</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
@@ -9099,7 +9099,7 @@
         <v>121</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>118</v>
@@ -9113,13 +9113,13 @@
         <v>121</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70">
@@ -9127,13 +9127,13 @@
         <v>128</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71">
@@ -9183,13 +9183,13 @@
         <v>78</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
@@ -9197,7 +9197,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
@@ -9211,7 +9211,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
@@ -9225,13 +9225,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -9253,13 +9253,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -9267,7 +9267,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
@@ -9281,7 +9281,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
@@ -9295,13 +9295,13 @@
         <v>78</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
@@ -9309,13 +9309,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -9323,13 +9323,13 @@
         <v>78</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
@@ -9365,13 +9365,13 @@
         <v>101</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88">
@@ -9379,7 +9379,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>118</v>
@@ -9393,13 +9393,13 @@
         <v>135</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>81</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -9413,7 +9413,7 @@
         <v>118</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91">
@@ -9421,13 +9421,13 @@
         <v>135</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -9435,7 +9435,7 @@
         <v>135</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>118</v>
@@ -9449,13 +9449,13 @@
         <v>135</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -9463,13 +9463,13 @@
         <v>135</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
@@ -9477,13 +9477,13 @@
         <v>135</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -9491,13 +9491,13 @@
         <v>147</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
@@ -9505,7 +9505,7 @@
         <v>147</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
@@ -9519,7 +9519,7 @@
         <v>147</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -9533,13 +9533,13 @@
         <v>147</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
@@ -9547,13 +9547,13 @@
         <v>147</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>48</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
@@ -9561,13 +9561,13 @@
         <v>147</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
@@ -9575,13 +9575,13 @@
         <v>147</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
@@ -9589,13 +9589,13 @@
         <v>147</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -9603,13 +9603,13 @@
         <v>79</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105">
@@ -9617,7 +9617,7 @@
         <v>79</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
@@ -9631,13 +9631,13 @@
         <v>79</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -9659,13 +9659,13 @@
         <v>79</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109">
@@ -9673,13 +9673,13 @@
         <v>79</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>79</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
@@ -9687,7 +9687,7 @@
         <v>79</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>118</v>
@@ -9715,13 +9715,13 @@
         <v>81</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>153</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113">
@@ -9735,7 +9735,7 @@
         <v>118</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
@@ -9743,13 +9743,13 @@
         <v>81</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>118</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
@@ -9757,13 +9757,13 @@
         <v>81</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
